--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_zyc_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_zyc_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BAAF4-FD78-48E3-869E-820B681E201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE4E5E3-114A-4D90-9583-6E82EB73B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,6 +1346,9 @@
     <t>[[imp:怎么了，看你最近好像很不开心？]]</t>
   </si>
   <si>
+    <t>[[imp:Something wrong? You've seemed unhappy lately.]]</t>
+  </si>
+  <si>
     <t>希云娜支线102</t>
   </si>
   <si>
@@ -1361,6 +1364,9 @@
     <t>[[imp:有兴趣讲讲你的故事吗？]]</t>
   </si>
   <si>
+    <t>[[imp:Care to share your story?]]</t>
+  </si>
+  <si>
     <t>韩靖支线1022</t>
   </si>
   <si>
@@ -1595,28 +1601,22 @@
     <t>贡献度刷新</t>
   </si>
   <si>
-    <t>[[imp:Me conte sobre a sua infância.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Me fale sobre o seu passado.]]</t>
-  </si>
-  <si>
-    <t>[[imp:Fez alguma nova poção recentemente?]]</t>
-  </si>
-  <si>
-    <t>[[imp:Algo está te incomodando?]]</t>
+    <t>[[imp:Conte-me sobre o seu passado.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Conte-me sobre sua infância.]]</t>
+  </si>
+  <si>
+    <t>[[imp:Fez algum elixir novo recentemente?]]</t>
+  </si>
+  <si>
+    <t>[[imp:Tem algo em sua mente?]]</t>
   </si>
   <si>
     <t>[[imp:Ouvi dizer que você precisava de ajuda com algo?]]</t>
   </si>
   <si>
-    <t>[[imp:Sobre a minha tribo...]]</t>
-  </si>
-  <si>
-    <t>[[imp:Algo está errado? Você tem parecido infeliz ultimamente.]]]</t>
-  </si>
-  <si>
-    <t>[[imp:Gostaria de compartilhar a sua história?]]</t>
+    <t>[[imp:Sobre minha equipe...]]</t>
   </si>
 </sst>
 </file>
@@ -2342,14 +2342,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5">
@@ -4307,7 +4308,7 @@
         <v>327</v>
       </c>
       <c r="C325" s="57" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="22.5">
@@ -4390,7 +4391,7 @@
         <v>341</v>
       </c>
       <c r="C338" s="57" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="22.5">
@@ -4425,7 +4426,7 @@
         <v>347</v>
       </c>
       <c r="C343" s="57" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="22.5">
@@ -4436,7 +4437,7 @@
         <v>349</v>
       </c>
       <c r="C344" s="57" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="22.5">
@@ -4507,7 +4508,7 @@
         <v>361</v>
       </c>
       <c r="C355" s="57" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="22.5">
@@ -4668,7 +4669,7 @@
         <v>388</v>
       </c>
       <c r="C381" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="22.5">
@@ -4679,7 +4680,7 @@
         <v>388</v>
       </c>
       <c r="C382" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="22.5">
@@ -4690,7 +4691,7 @@
         <v>388</v>
       </c>
       <c r="C383" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="22.5">
@@ -4701,7 +4702,7 @@
         <v>388</v>
       </c>
       <c r="C384" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="22.5">
@@ -4712,7 +4713,7 @@
         <v>388</v>
       </c>
       <c r="C385" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="33.75">
@@ -4941,503 +4942,503 @@
         <v>433</v>
       </c>
       <c r="C425" s="57" t="s">
-        <v>523</v>
+        <v>434</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="22.5">
       <c r="A426" s="41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B426" s="42"/>
     </row>
     <row r="427" spans="1:3" ht="22.5">
       <c r="A427" s="41" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B427" s="42"/>
     </row>
     <row r="428" spans="1:3" ht="22.5">
       <c r="A428" s="41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B428" s="42"/>
     </row>
     <row r="429" spans="1:3" ht="22.5">
       <c r="A429" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B429" s="44" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C429" s="57" t="s">
-        <v>524</v>
+        <v>440</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="22.5">
       <c r="A430" s="48" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B430" s="49"/>
     </row>
     <row r="431" spans="1:3" ht="22.5">
       <c r="A431" s="48" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B431" s="49"/>
     </row>
     <row r="432" spans="1:3" ht="22.5">
       <c r="A432" s="25" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B432" s="26"/>
     </row>
     <row r="433" spans="1:2" ht="22.5">
       <c r="A433" s="41" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B433" s="42"/>
     </row>
     <row r="434" spans="1:2" ht="33.75">
       <c r="A434" s="41" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B434" s="42"/>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="41" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B435" s="42"/>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="41" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B436" s="42"/>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="41" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B437" s="42"/>
     </row>
     <row r="438" spans="1:2" ht="22.5">
       <c r="A438" s="23" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B438" s="24"/>
     </row>
     <row r="439" spans="1:2" ht="22.5">
       <c r="A439" s="41" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B439" s="42"/>
     </row>
     <row r="440" spans="1:2" ht="22.5">
       <c r="A440" s="41" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B440" s="42"/>
     </row>
     <row r="441" spans="1:2" ht="22.5">
       <c r="A441" s="41" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B441" s="42"/>
     </row>
     <row r="442" spans="1:2" ht="22.5">
       <c r="A442" s="41" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B442" s="42"/>
     </row>
     <row r="443" spans="1:2" ht="22.5">
       <c r="A443" s="23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B443" s="24"/>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="41" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B444" s="42"/>
     </row>
     <row r="445" spans="1:2" ht="22.5">
       <c r="A445" s="23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B445" s="24"/>
     </row>
     <row r="446" spans="1:2" ht="22.5">
       <c r="A446" s="23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B446" s="24"/>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="41" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B447" s="42"/>
     </row>
     <row r="448" spans="1:2" ht="22.5">
       <c r="A448" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B448" s="2"/>
     </row>
     <row r="449" spans="1:2" ht="22.5">
       <c r="A449" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B449" s="2"/>
     </row>
     <row r="450" spans="1:2" ht="22.5">
       <c r="A450" s="41" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B450" s="42"/>
     </row>
     <row r="451" spans="1:2" ht="22.5">
       <c r="A451" s="41" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B451" s="42"/>
     </row>
     <row r="452" spans="1:2" ht="22.5">
       <c r="A452" s="41" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B452" s="42"/>
     </row>
     <row r="453" spans="1:2" ht="22.5">
       <c r="A453" s="23" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B453" s="24"/>
     </row>
     <row r="454" spans="1:2" ht="22.5">
       <c r="A454" s="41" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B454" s="42"/>
     </row>
     <row r="455" spans="1:2" ht="22.5">
       <c r="A455" s="41" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B455" s="42"/>
     </row>
     <row r="456" spans="1:2" ht="22.5">
       <c r="A456" s="41" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B456" s="42"/>
     </row>
     <row r="457" spans="1:2" ht="22.5">
       <c r="A457" s="41" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B457" s="42"/>
     </row>
     <row r="458" spans="1:2" ht="22.5">
       <c r="A458" s="23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B458" s="24"/>
     </row>
     <row r="459" spans="1:2" ht="22.5">
       <c r="A459" s="41" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B459" s="42"/>
     </row>
     <row r="460" spans="1:2" ht="22.5">
       <c r="A460" s="23" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B460" s="24"/>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="41" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B461" s="42"/>
     </row>
     <row r="462" spans="1:2" ht="22.5">
       <c r="A462" s="31" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B462" s="32"/>
     </row>
     <row r="463" spans="1:2" ht="22.5">
       <c r="A463" s="48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B463" s="49"/>
     </row>
     <row r="464" spans="1:2" ht="22.5">
       <c r="A464" s="48" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B464" s="49"/>
     </row>
     <row r="465" spans="1:2" ht="22.5">
       <c r="A465" s="31" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B465" s="32"/>
     </row>
     <row r="466" spans="1:2" ht="22.5">
       <c r="A466" s="31" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B466" s="32"/>
     </row>
     <row r="467" spans="1:2" ht="22.5">
       <c r="A467" s="31" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B467" s="32"/>
     </row>
     <row r="468" spans="1:2" ht="22.5">
       <c r="A468" s="31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B468" s="32"/>
     </row>
     <row r="469" spans="1:2" ht="22.5">
       <c r="A469" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B469" s="32"/>
     </row>
     <row r="470" spans="1:2" ht="22.5">
       <c r="A470" s="31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B470" s="32"/>
     </row>
     <row r="471" spans="1:2" ht="22.5">
       <c r="A471" s="29" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B471" s="30"/>
     </row>
     <row r="472" spans="1:2" ht="22.5">
       <c r="A472" s="31" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B472" s="32"/>
     </row>
     <row r="473" spans="1:2" ht="22.5">
       <c r="A473" s="17" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B473" s="18"/>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="48" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B474" s="49"/>
     </row>
     <row r="475" spans="1:2" ht="33.75">
       <c r="A475" s="31" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B475" s="32"/>
     </row>
     <row r="476" spans="1:2" ht="22.5">
       <c r="A476" s="48" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B476" s="49"/>
     </row>
     <row r="477" spans="1:2" ht="22.5">
       <c r="A477" s="41" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B477" s="42"/>
     </row>
     <row r="478" spans="1:2" ht="22.5">
       <c r="A478" s="41" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B478" s="42"/>
     </row>
     <row r="479" spans="1:2" ht="33.75">
       <c r="A479" s="41" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B479" s="42"/>
     </row>
     <row r="480" spans="1:2" ht="33.75">
       <c r="A480" s="41" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B480" s="42"/>
     </row>
     <row r="481" spans="1:2" ht="22.5">
       <c r="A481" s="41" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B481" s="42"/>
     </row>
     <row r="482" spans="1:2" ht="22.5">
       <c r="A482" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B482" s="32"/>
     </row>
     <row r="483" spans="1:2" ht="33.75">
       <c r="A483" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B483" s="32"/>
     </row>
     <row r="484" spans="1:2" ht="33.75">
       <c r="A484" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B484" s="32"/>
     </row>
     <row r="485" spans="1:2" ht="33.75">
       <c r="A485" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B485" s="32"/>
     </row>
     <row r="486" spans="1:2" ht="33.75">
       <c r="A486" s="31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B486" s="32"/>
     </row>
     <row r="487" spans="1:2" ht="22.5">
       <c r="A487" s="50" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B487" s="51"/>
     </row>
     <row r="488" spans="1:2" ht="33.75">
       <c r="A488" s="50" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B488" s="51"/>
     </row>
     <row r="489" spans="1:2" ht="45">
       <c r="A489" s="50" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B489" s="51"/>
     </row>
     <row r="490" spans="1:2" ht="33.75">
       <c r="A490" s="50" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B490" s="51"/>
     </row>
     <row r="491" spans="1:2" ht="33.75">
       <c r="A491" s="50" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B491" s="51"/>
     </row>
     <row r="492" spans="1:2" ht="33.75">
       <c r="A492" s="50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B492" s="51"/>
     </row>
     <row r="493" spans="1:2" ht="54">
       <c r="A493" s="52" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B493" s="42"/>
     </row>
     <row r="494" spans="1:2" ht="54">
       <c r="A494" s="52" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B494" s="42"/>
     </row>
     <row r="495" spans="1:2" ht="54">
       <c r="A495" s="52" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B495" s="42"/>
     </row>
     <row r="496" spans="1:2" ht="40.5">
       <c r="A496" s="52" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B496" s="42"/>
     </row>
     <row r="497" spans="1:2" ht="54">
       <c r="A497" s="52" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B497" s="42"/>
     </row>
     <row r="498" spans="1:2" ht="54">
       <c r="A498" s="52" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B498" s="42"/>
     </row>
     <row r="499" spans="1:2" ht="54">
       <c r="A499" s="52" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B499" s="42"/>
     </row>
     <row r="500" spans="1:2" ht="54">
       <c r="A500" s="52" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B500" s="42"/>
     </row>
     <row r="501" spans="1:2" ht="40.5">
       <c r="A501" s="52" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B501" s="42"/>
     </row>
     <row r="502" spans="1:2" ht="54">
       <c r="A502" s="52" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B502" s="42"/>
     </row>
     <row r="503" spans="1:2" ht="54">
       <c r="A503" s="52" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B503" s="42"/>
     </row>
     <row r="504" spans="1:2" ht="27">
       <c r="A504" s="53" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B504" s="12"/>
     </row>
     <row r="505" spans="1:2" ht="54">
       <c r="A505" s="52" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B505" s="42"/>
     </row>
     <row r="506" spans="1:2" ht="40.5">
       <c r="A506" s="52" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B506" s="42"/>
     </row>
     <row r="507" spans="1:2" ht="27">
       <c r="A507" s="52" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B507" s="42"/>
     </row>
